--- a/methods/HPLC_standards.xlsx
+++ b/methods/HPLC_standards.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bca08_000\Documents\scutellariaMetabolites\methods\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bryce\Research\scutellariaMetabolites\methods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA01C79-5F53-43CD-9BB2-C98F11E2CDEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5E1439-E332-46D9-A985-7CF35A3E3C3E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{75B3777B-BA7A-4C98-B4D5-CAF9E967F79D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{75B3777B-BA7A-4C98-B4D5-CAF9E967F79D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>chemical</t>
   </si>
@@ -111,6 +111,12 @@
   </si>
   <si>
     <t>100 ppm mix to add (microL)</t>
+  </si>
+  <si>
+    <t>scutellarin only</t>
+  </si>
+  <si>
+    <t>to make 100 ppm mix (uL)</t>
   </si>
 </sst>
 </file>
@@ -474,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{276B4C21-22EC-4D1A-87D8-0CC5B274EE7C}">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,6 +989,55 @@
         <v>500</v>
       </c>
     </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33">
+        <v>4000</v>
+      </c>
+      <c r="E33">
+        <v>1.5</v>
+      </c>
+      <c r="F33">
+        <f>$E33*(100*0.001)/($D33*0.001)*1000</f>
+        <v>37.500000000000007</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34">
+        <f>(E33*1000)-SUM(F33)</f>
+        <v>1462.5</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D16">
     <sortCondition ref="B2:B16"/>
@@ -991,5 +1046,6 @@
     <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/methods/HPLC_standards.xlsx
+++ b/methods/HPLC_standards.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bryce\Research\scutellariaMetabolites\methods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5E1439-E332-46D9-A985-7CF35A3E3C3E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4CEF5F-ECEE-4DE0-BB13-01BBE03E4A8C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{75B3777B-BA7A-4C98-B4D5-CAF9E967F79D}"/>
+    <workbookView xWindow="-9765" yWindow="2295" windowWidth="21600" windowHeight="11385" xr2:uid="{75B3777B-BA7A-4C98-B4D5-CAF9E967F79D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
   <si>
     <t>chemical</t>
   </si>
@@ -117,6 +117,24 @@
   </si>
   <si>
     <t>to make 100 ppm mix (uL)</t>
+  </si>
+  <si>
+    <t>15 mix</t>
+  </si>
+  <si>
+    <t>oroxylin A</t>
+  </si>
+  <si>
+    <t>apigenin 7-G</t>
+  </si>
+  <si>
+    <t>chrysin 7-G</t>
+  </si>
+  <si>
+    <t>hispiduloside</t>
+  </si>
+  <si>
+    <t>microL to make 100 ppm mix</t>
   </si>
 </sst>
 </file>
@@ -480,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{276B4C21-22EC-4D1A-87D8-0CC5B274EE7C}">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,9 +512,13 @@
     <col min="5" max="5" width="24.42578125" customWidth="1"/>
     <col min="6" max="6" width="25.28515625" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1"/>
+    <col min="11" max="11" width="20.28515625" customWidth="1"/>
+    <col min="12" max="12" width="24.42578125" customWidth="1"/>
+    <col min="13" max="13" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -516,13 +538,14 @@
         <v>21</v>
       </c>
       <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -542,8 +565,23 @@
         <f>$E2*(100*0.001)/($D2*0.001)*1000</f>
         <v>37.500000000000007</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -563,8 +601,24 @@
         <f t="shared" ref="F3:F9" si="0">$E3*(100*0.001)/($D3*0.001)*1000</f>
         <v>75.000000000000014</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <v>2000</v>
+      </c>
+      <c r="L3">
+        <v>1.5</v>
+      </c>
+      <c r="M3">
+        <f>$L3*(100*0.001)/($K3*0.001)*1000</f>
+        <v>75.000000000000014</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -584,8 +638,24 @@
         <f t="shared" si="0"/>
         <v>37.500000000000007</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4">
+        <v>4000</v>
+      </c>
+      <c r="L4">
+        <v>1.5</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ref="M4:M16" si="1">$L4*(100*0.001)/($K4*0.001)*1000</f>
+        <v>37.500000000000007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -605,8 +675,24 @@
         <f t="shared" si="0"/>
         <v>37.500000000000007</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>4000</v>
+      </c>
+      <c r="L5">
+        <v>1.5</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="1"/>
+        <v>37.500000000000007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -626,8 +712,24 @@
         <f t="shared" si="0"/>
         <v>75.000000000000014</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6">
+        <v>4000</v>
+      </c>
+      <c r="L6">
+        <v>1.5</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>37.500000000000007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -647,8 +749,24 @@
         <f t="shared" si="0"/>
         <v>150.00000000000003</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7">
+        <v>2000</v>
+      </c>
+      <c r="L7">
+        <v>1.5</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>75.000000000000014</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -668,8 +786,24 @@
         <f t="shared" si="0"/>
         <v>75.000000000000014</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <v>6</v>
+      </c>
+      <c r="J8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8">
+        <v>1000</v>
+      </c>
+      <c r="L8">
+        <v>1.5</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>150.00000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -689,8 +823,24 @@
         <f t="shared" si="0"/>
         <v>75.000000000000014</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <v>7</v>
+      </c>
+      <c r="J9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9">
+        <v>2000</v>
+      </c>
+      <c r="L9">
+        <v>1.5</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>75.000000000000014</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E10" s="1" t="s">
         <v>20</v>
       </c>
@@ -698,8 +848,42 @@
         <f>$E2*1000-SUM(F2:F9)</f>
         <v>937.49999999999989</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <v>8</v>
+      </c>
+      <c r="J10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10">
+        <v>2000</v>
+      </c>
+      <c r="L10">
+        <v>1.5</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>75.000000000000014</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <v>9</v>
+      </c>
+      <c r="J11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11">
+        <v>2000</v>
+      </c>
+      <c r="L11">
+        <v>1.5</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>75.000000000000014</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -719,8 +903,24 @@
         <f>$E12*(100*0.001)/($D12*0.001)*1000</f>
         <v>75.000000000000014</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <v>10</v>
+      </c>
+      <c r="J12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12">
+        <v>2000</v>
+      </c>
+      <c r="L12">
+        <v>1.5</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>75.000000000000014</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -737,11 +937,27 @@
         <v>1.5</v>
       </c>
       <c r="F13">
-        <f t="shared" ref="F13:F18" si="1">$E13*(100*0.001)/($D13*0.001)*1000</f>
-        <v>75.000000000000014</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F13:F18" si="2">$E13*(100*0.001)/($D13*0.001)*1000</f>
+        <v>75.000000000000014</v>
+      </c>
+      <c r="I13">
+        <v>11</v>
+      </c>
+      <c r="J13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13">
+        <v>1000</v>
+      </c>
+      <c r="L13">
+        <v>1.5</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="1"/>
+        <v>150.00000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
@@ -758,11 +974,27 @@
         <v>1.5</v>
       </c>
       <c r="F14">
+        <f t="shared" si="2"/>
+        <v>75.000000000000014</v>
+      </c>
+      <c r="I14">
+        <v>12</v>
+      </c>
+      <c r="J14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14">
+        <v>2000</v>
+      </c>
+      <c r="L14">
+        <v>1.5</v>
+      </c>
+      <c r="M14">
         <f t="shared" si="1"/>
         <v>75.000000000000014</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
@@ -779,11 +1011,27 @@
         <v>1.5</v>
       </c>
       <c r="F15">
+        <f t="shared" si="2"/>
+        <v>150.00000000000003</v>
+      </c>
+      <c r="I15">
+        <v>13</v>
+      </c>
+      <c r="J15" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15">
+        <v>4000</v>
+      </c>
+      <c r="L15">
+        <v>1.5</v>
+      </c>
+      <c r="M15">
         <f t="shared" si="1"/>
-        <v>150.00000000000003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>37.500000000000007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13</v>
       </c>
@@ -800,11 +1048,27 @@
         <v>1.5</v>
       </c>
       <c r="F16">
+        <f t="shared" si="2"/>
+        <v>75.000000000000014</v>
+      </c>
+      <c r="I16">
+        <v>14</v>
+      </c>
+      <c r="J16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16">
+        <v>924.8</v>
+      </c>
+      <c r="L16">
+        <v>1.5</v>
+      </c>
+      <c r="M16">
         <f t="shared" si="1"/>
-        <v>75.000000000000014</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>162.19723183391008</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
@@ -821,11 +1085,18 @@
         <v>1.5</v>
       </c>
       <c r="F17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>37.500000000000007</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17">
+        <f>$L$3*1000-SUM(M3:M16)</f>
+        <v>362.80276816608989</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15</v>
       </c>
@@ -842,11 +1113,11 @@
         <v>1.5</v>
       </c>
       <c r="F18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>37.500000000000007</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E19" s="1" t="s">
         <v>20</v>
       </c>
@@ -855,7 +1126,7 @@
         <v>974.99999999999989</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
@@ -863,7 +1134,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
@@ -877,7 +1148,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0.1</v>
       </c>
@@ -893,7 +1164,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0.5</v>
       </c>
@@ -901,15 +1172,15 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <f t="shared" ref="C24:C29" si="2">(A24/100)*(B24*1000)</f>
+        <f t="shared" ref="C24:C29" si="3">(A24/100)*(B24*1000)</f>
         <v>5</v>
       </c>
       <c r="D24">
-        <f t="shared" ref="D24:D29" si="3">(B24*1000)-C24</f>
+        <f t="shared" ref="D24:D29" si="4">(B24*1000)-C24</f>
         <v>995</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -917,15 +1188,15 @@
         <v>1</v>
       </c>
       <c r="C25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="D25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>990</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>5</v>
       </c>
@@ -933,15 +1204,15 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="D26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>950</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>10</v>
       </c>
@@ -949,15 +1220,15 @@
         <v>1</v>
       </c>
       <c r="C27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="D27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>900</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>25</v>
       </c>
@@ -965,15 +1236,15 @@
         <v>1</v>
       </c>
       <c r="C28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
       <c r="D28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>750</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>50</v>
       </c>
@@ -981,20 +1252,20 @@
         <v>1</v>
       </c>
       <c r="C29">
-        <f t="shared" si="2"/>
-        <v>500</v>
-      </c>
-      <c r="D29">
         <f t="shared" si="3"/>
         <v>500</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <f t="shared" si="4"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>17</v>
       </c>
